--- a/220108 kosdaq 레버리지 PC 수익률쏵.xlsx
+++ b/220108 kosdaq 레버리지 PC 수익률쏵.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Songyounggul\PycharmProjects\quantinvest_stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B84C69-BE51-4AAD-9246-CA5F8A19BCB3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1838A49E-7F00-490F-AD51-76D1BE5F7498}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="32914" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,9 +16,9 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="19" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -54,6 +54,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -112,7 +115,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -122,11 +125,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0%"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -384,6 +392,231 @@
           <c:symbol val="none"/>
         </c:marker>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="15"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="16"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="17"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="18"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="19"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="20"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="21"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="22"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="23"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="24"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="25"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="26"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="27"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="28"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="29"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -396,7 +629,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$B$1:$B$2</c:f>
+              <c:f>Sheet2!$B$3:$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -417,7 +650,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$3:$A$18</c:f>
+              <c:f>Sheet2!$A$5:$A$20</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -470,7 +703,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$3:$B$18</c:f>
+              <c:f>Sheet2!$B$5:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -530,7 +763,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$C$1:$C$2</c:f>
+              <c:f>Sheet2!$C$3:$C$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -551,7 +784,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$3:$A$18</c:f>
+              <c:f>Sheet2!$A$5:$A$20</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -604,7 +837,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$C$3:$C$18</c:f>
+              <c:f>Sheet2!$C$5:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -655,7 +888,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FC42-4AEA-AF15-410C6524E023}"/>
+              <c16:uniqueId val="{00000000-8012-48BA-88C5-0C85FF4FCC32}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -664,7 +897,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$D$1:$D$2</c:f>
+              <c:f>Sheet2!$D$3:$D$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -685,7 +918,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$3:$A$18</c:f>
+              <c:f>Sheet2!$A$5:$A$20</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -738,7 +971,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$D$3:$D$18</c:f>
+              <c:f>Sheet2!$D$5:$D$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -789,7 +1022,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-FC42-4AEA-AF15-410C6524E023}"/>
+              <c16:uniqueId val="{00000001-8012-48BA-88C5-0C85FF4FCC32}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -798,7 +1031,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$E$1:$E$2</c:f>
+              <c:f>Sheet2!$E$3:$E$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -819,7 +1052,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$3:$A$18</c:f>
+              <c:f>Sheet2!$A$5:$A$20</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -872,7 +1105,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$E$3:$E$18</c:f>
+              <c:f>Sheet2!$E$5:$E$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -923,7 +1156,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-FC42-4AEA-AF15-410C6524E023}"/>
+              <c16:uniqueId val="{00000002-8012-48BA-88C5-0C85FF4FCC32}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -932,7 +1165,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$F$1:$F$2</c:f>
+              <c:f>Sheet2!$F$3:$F$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -953,7 +1186,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$3:$A$18</c:f>
+              <c:f>Sheet2!$A$5:$A$20</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -1006,7 +1239,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$F$3:$F$18</c:f>
+              <c:f>Sheet2!$F$5:$F$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1057,7 +1290,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-FC42-4AEA-AF15-410C6524E023}"/>
+              <c16:uniqueId val="{00000003-8012-48BA-88C5-0C85FF4FCC32}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1066,7 +1299,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$G$1:$G$2</c:f>
+              <c:f>Sheet2!$G$3:$G$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1087,7 +1320,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$3:$A$18</c:f>
+              <c:f>Sheet2!$A$5:$A$20</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -1140,7 +1373,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$G$3:$G$18</c:f>
+              <c:f>Sheet2!$G$5:$G$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1191,7 +1424,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-FC42-4AEA-AF15-410C6524E023}"/>
+              <c16:uniqueId val="{00000004-8012-48BA-88C5-0C85FF4FCC32}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1200,7 +1433,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$H$1:$H$2</c:f>
+              <c:f>Sheet2!$H$3:$H$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1223,7 +1456,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$3:$A$18</c:f>
+              <c:f>Sheet2!$A$5:$A$20</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -1276,7 +1509,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$H$3:$H$18</c:f>
+              <c:f>Sheet2!$H$5:$H$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1327,7 +1560,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-FC42-4AEA-AF15-410C6524E023}"/>
+              <c16:uniqueId val="{00000005-8012-48BA-88C5-0C85FF4FCC32}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1336,7 +1569,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$I$1:$I$2</c:f>
+              <c:f>Sheet2!$I$3:$I$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1359,7 +1592,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$3:$A$18</c:f>
+              <c:f>Sheet2!$A$5:$A$20</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -1412,7 +1645,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$I$3:$I$18</c:f>
+              <c:f>Sheet2!$I$5:$I$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1463,7 +1696,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-FC42-4AEA-AF15-410C6524E023}"/>
+              <c16:uniqueId val="{00000006-8012-48BA-88C5-0C85FF4FCC32}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1472,7 +1705,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$J$1:$J$2</c:f>
+              <c:f>Sheet2!$J$3:$J$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1495,7 +1728,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$3:$A$18</c:f>
+              <c:f>Sheet2!$A$5:$A$20</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -1548,7 +1781,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$J$3:$J$18</c:f>
+              <c:f>Sheet2!$J$5:$J$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1599,7 +1832,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-FC42-4AEA-AF15-410C6524E023}"/>
+              <c16:uniqueId val="{00000007-8012-48BA-88C5-0C85FF4FCC32}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1608,7 +1841,7 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$K$1:$K$2</c:f>
+              <c:f>Sheet2!$K$3:$K$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1631,7 +1864,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$3:$A$18</c:f>
+              <c:f>Sheet2!$A$5:$A$20</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -1684,7 +1917,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$K$3:$K$18</c:f>
+              <c:f>Sheet2!$K$5:$K$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1735,7 +1968,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-FC42-4AEA-AF15-410C6524E023}"/>
+              <c16:uniqueId val="{00000008-8012-48BA-88C5-0C85FF4FCC32}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1744,7 +1977,7 @@
           <c:order val="10"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$L$1:$L$2</c:f>
+              <c:f>Sheet2!$L$3:$L$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1767,7 +2000,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$3:$A$18</c:f>
+              <c:f>Sheet2!$A$5:$A$20</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -1820,7 +2053,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$L$3:$L$18</c:f>
+              <c:f>Sheet2!$L$5:$L$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1871,7 +2104,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-FC42-4AEA-AF15-410C6524E023}"/>
+              <c16:uniqueId val="{00000009-8012-48BA-88C5-0C85FF4FCC32}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1880,7 +2113,7 @@
           <c:order val="11"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$M$1:$M$2</c:f>
+              <c:f>Sheet2!$M$3:$M$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1903,7 +2136,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$3:$A$18</c:f>
+              <c:f>Sheet2!$A$5:$A$20</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -1956,7 +2189,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$M$3:$M$18</c:f>
+              <c:f>Sheet2!$M$5:$M$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2007,7 +2240,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-FC42-4AEA-AF15-410C6524E023}"/>
+              <c16:uniqueId val="{0000000A-8012-48BA-88C5-0C85FF4FCC32}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2016,7 +2249,7 @@
           <c:order val="12"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$N$1:$N$2</c:f>
+              <c:f>Sheet2!$N$3:$N$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2040,7 +2273,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$3:$A$18</c:f>
+              <c:f>Sheet2!$A$5:$A$20</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -2093,7 +2326,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$N$3:$N$18</c:f>
+              <c:f>Sheet2!$N$5:$N$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2144,7 +2377,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-FC42-4AEA-AF15-410C6524E023}"/>
+              <c16:uniqueId val="{0000000B-8012-48BA-88C5-0C85FF4FCC32}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2153,7 +2386,7 @@
           <c:order val="13"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$O$1:$O$2</c:f>
+              <c:f>Sheet2!$O$3:$O$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2177,7 +2410,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$3:$A$18</c:f>
+              <c:f>Sheet2!$A$5:$A$20</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -2230,7 +2463,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$O$3:$O$18</c:f>
+              <c:f>Sheet2!$O$5:$O$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2281,7 +2514,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000D-FC42-4AEA-AF15-410C6524E023}"/>
+              <c16:uniqueId val="{0000000C-8012-48BA-88C5-0C85FF4FCC32}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2290,7 +2523,7 @@
           <c:order val="14"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$P$1:$P$2</c:f>
+              <c:f>Sheet2!$P$3:$P$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2314,7 +2547,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$3:$A$18</c:f>
+              <c:f>Sheet2!$A$5:$A$20</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -2367,7 +2600,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$P$3:$P$18</c:f>
+              <c:f>Sheet2!$P$5:$P$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2376,7 +2609,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000E-FC42-4AEA-AF15-410C6524E023}"/>
+              <c16:uniqueId val="{0000000D-8012-48BA-88C5-0C85FF4FCC32}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3146,16 +3379,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>832757</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>880753</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>130629</xdr:rowOff>
+      <xdr:rowOff>130628</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>223157</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>195943</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>188025</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4428,8 +4661,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{029039C9-6936-4086-B8EA-6CDFD59DA0CD}" name="피벗 테이블4" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A1:Q18" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{029039C9-6936-4086-B8EA-6CDFD59DA0CD}" name="피벗 테이블4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:Q20" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisCol" showAll="0">
       <items count="16">
@@ -4582,6 +4815,46 @@
   <dataFields count="1">
     <dataField name="평균 : 누적수익률" fld="2" subtotal="average" baseField="1" baseItem="0"/>
   </dataFields>
+  <formats count="1">
+    <format dxfId="0">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="14" selected="0">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+            <x v="5"/>
+            <x v="6"/>
+            <x v="7"/>
+            <x v="8"/>
+            <x v="9"/>
+            <x v="10"/>
+            <x v="11"/>
+            <x v="12"/>
+            <x v="13"/>
+          </reference>
+          <reference field="1" count="14">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+            <x v="5"/>
+            <x v="6"/>
+            <x v="7"/>
+            <x v="8"/>
+            <x v="9"/>
+            <x v="10"/>
+            <x v="11"/>
+            <x v="12"/>
+            <x v="13"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
   <conditionalFormats count="1">
     <conditionalFormat priority="1">
       <pivotAreas count="1">
@@ -4627,7 +4900,7 @@
       </pivotAreas>
     </conditionalFormat>
   </conditionalFormats>
-  <chartFormats count="15">
+  <chartFormats count="30">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -4759,6 +5032,183 @@
         <references count="1">
           <reference field="0" count="1" selected="0">
             <x v="14"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="16" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="17" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="18" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="20" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="21" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="23" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="24" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="25" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="11"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="26" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="12"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="27" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="13"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="28" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="14"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="29" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
           </reference>
         </references>
       </pivotArea>
@@ -5061,872 +5511,920 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81DF7D33-1A02-4743-B35E-AA55FFD1872F}">
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A3:Q20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H40" sqref="H39:H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="13" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="13" width="13.2109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.2109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.2109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="30" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.2109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="45" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="13.2109375" bestFit="1" customWidth="1"/>
+    <col min="47" max="60" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="13.2109375" bestFit="1" customWidth="1"/>
+    <col min="62" max="75" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="13.2109375" bestFit="1" customWidth="1"/>
+    <col min="77" max="90" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="12" bestFit="1" customWidth="1"/>
+    <col min="92" max="93" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="95" max="97" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="99" max="105" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="13.2109375" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="108" max="109" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="111" max="113" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="114" max="118" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="119" max="120" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="13.2109375" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="123" max="129" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="133" max="135" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="13.2109375" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="138" max="143" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="144" max="145" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="148" max="150" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="151" max="151" width="13.2109375" bestFit="1" customWidth="1"/>
+    <col min="152" max="165" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="13.2109375" bestFit="1" customWidth="1"/>
+    <col min="167" max="180" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="181" max="181" width="13.2109375" bestFit="1" customWidth="1"/>
+    <col min="182" max="195" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="196" max="196" width="13.2109375" bestFit="1" customWidth="1"/>
+    <col min="197" max="210" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="211" max="211" width="13.2109375" bestFit="1" customWidth="1"/>
+    <col min="212" max="212" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="213" max="213" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="214" max="214" width="13.2109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="2" t="s">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="2" t="s">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
+      <c r="B4">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="C4">
         <v>4</v>
       </c>
-      <c r="D2">
+      <c r="D4">
         <v>6</v>
       </c>
-      <c r="E2">
+      <c r="E4">
         <v>8</v>
       </c>
-      <c r="F2">
+      <c r="F4">
         <v>10</v>
       </c>
-      <c r="G2">
+      <c r="G4">
         <v>12</v>
       </c>
-      <c r="H2">
+      <c r="H4">
         <v>14</v>
       </c>
-      <c r="I2">
+      <c r="I4">
         <v>16</v>
       </c>
-      <c r="J2">
+      <c r="J4">
         <v>18</v>
       </c>
-      <c r="K2">
+      <c r="K4">
         <v>20</v>
       </c>
-      <c r="L2">
+      <c r="L4">
         <v>22</v>
       </c>
-      <c r="M2">
+      <c r="M4">
         <v>24</v>
       </c>
-      <c r="N2">
+      <c r="N4">
         <v>26</v>
       </c>
-      <c r="O2">
+      <c r="O4">
         <v>28</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P4" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q4" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4">
-        <v>2.9041653363338611</v>
-      </c>
-      <c r="C3" s="4">
-        <v>1.9643387065143669</v>
-      </c>
-      <c r="D3" s="4">
-        <v>1.584800593714156</v>
-      </c>
-      <c r="E3" s="4">
-        <v>1.807777785115495</v>
-      </c>
-      <c r="F3" s="4">
-        <v>1.6096492261419499</v>
-      </c>
-      <c r="G3" s="4">
-        <v>1.3838263947432541</v>
-      </c>
-      <c r="H3" s="4">
-        <v>1.3418720080599029</v>
-      </c>
-      <c r="I3" s="4">
-        <v>1.4097640727108189</v>
-      </c>
-      <c r="J3" s="4">
-        <v>1.431224671193035</v>
-      </c>
-      <c r="K3" s="4">
-        <v>1.385883871611773</v>
-      </c>
-      <c r="L3" s="4">
-        <v>1.415473166418928</v>
-      </c>
-      <c r="M3" s="4">
-        <v>1.3997366976406269</v>
-      </c>
-      <c r="N3" s="4">
-        <v>1.361558258393176</v>
-      </c>
-      <c r="O3" s="4">
-        <v>1.352336999660076</v>
-      </c>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4">
-        <v>1.5966005563036731</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="3">
-        <v>4</v>
-      </c>
-      <c r="B4" s="4">
-        <v>2.688093532343554</v>
-      </c>
-      <c r="C4" s="4">
-        <v>2.543652944198576</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1.9306182789398689</v>
-      </c>
-      <c r="E4" s="4">
-        <v>2.5788713036310051</v>
-      </c>
-      <c r="F4" s="4">
-        <v>2.2737766727208202</v>
-      </c>
-      <c r="G4" s="4">
-        <v>2.0076336535534818</v>
-      </c>
-      <c r="H4" s="4">
-        <v>1.8058795320100609</v>
-      </c>
-      <c r="I4" s="4">
-        <v>1.959887218018614</v>
-      </c>
-      <c r="J4" s="4">
-        <v>2.0532540687264822</v>
-      </c>
-      <c r="K4" s="4">
-        <v>2.005216111013675</v>
-      </c>
-      <c r="L4" s="4">
-        <v>2.0503134599120139</v>
-      </c>
-      <c r="M4" s="4">
-        <v>1.869566208663799</v>
-      </c>
-      <c r="N4" s="4">
-        <v>1.804180193304052</v>
-      </c>
-      <c r="O4" s="4">
-        <v>1.6566913045345251</v>
-      </c>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4">
-        <v>2.0876881772550377</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3">
-        <v>6</v>
-      </c>
-      <c r="B5" s="4">
-        <v>2.745197486002807</v>
-      </c>
-      <c r="C5" s="4">
-        <v>2.1474439912829228</v>
-      </c>
-      <c r="D5" s="4">
-        <v>1.588215330262301</v>
-      </c>
-      <c r="E5" s="4">
-        <v>1.9243240235909389</v>
-      </c>
-      <c r="F5" s="4">
-        <v>1.75108834554712</v>
-      </c>
-      <c r="G5" s="4">
-        <v>1.6704764036250439</v>
-      </c>
-      <c r="H5" s="4">
-        <v>1.510906074052208</v>
-      </c>
-      <c r="I5" s="4">
-        <v>1.7626189981906939</v>
-      </c>
-      <c r="J5" s="4">
-        <v>1.8747503834008139</v>
-      </c>
-      <c r="K5" s="4">
-        <v>1.8102525203438931</v>
-      </c>
-      <c r="L5" s="4">
-        <v>1.910448081288965</v>
-      </c>
-      <c r="M5" s="4">
-        <v>1.74203078993478</v>
-      </c>
-      <c r="N5" s="4">
-        <v>1.6005768127267239</v>
-      </c>
-      <c r="O5" s="4">
-        <v>1.4697321795933651</v>
+        <v>2</v>
+      </c>
+      <c r="B5" s="5">
+        <v>2.9041653363338611</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1.9643387065143669</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1.584800593714156</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1.807777785115495</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1.6096492261419499</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1.3838263947432541</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1.3418720080599029</v>
+      </c>
+      <c r="I5" s="5">
+        <v>1.4097640727108189</v>
+      </c>
+      <c r="J5" s="5">
+        <v>1.431224671193035</v>
+      </c>
+      <c r="K5" s="5">
+        <v>1.385883871611773</v>
+      </c>
+      <c r="L5" s="5">
+        <v>1.415473166418928</v>
+      </c>
+      <c r="M5" s="5">
+        <v>1.3997366976406269</v>
+      </c>
+      <c r="N5" s="5">
+        <v>1.361558258393176</v>
+      </c>
+      <c r="O5" s="5">
+        <v>1.352336999660076</v>
       </c>
       <c r="P5" s="4"/>
       <c r="Q5" s="4">
-        <v>1.8220043871316132</v>
+        <v>1.5966005563036731</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3">
-        <v>8</v>
-      </c>
-      <c r="B6" s="4">
-        <v>2.424310829193391</v>
-      </c>
-      <c r="C6" s="4">
-        <v>1.9285181069764019</v>
-      </c>
-      <c r="D6" s="4">
-        <v>1.5765386091948801</v>
-      </c>
-      <c r="E6" s="4">
-        <v>1.98716775322256</v>
-      </c>
-      <c r="F6" s="4">
-        <v>1.8308334513983671</v>
-      </c>
-      <c r="G6" s="4">
-        <v>1.9856478901722401</v>
-      </c>
-      <c r="H6" s="4">
-        <v>1.7694491345610099</v>
-      </c>
-      <c r="I6" s="4">
-        <v>2.1734703404641391</v>
-      </c>
-      <c r="J6" s="4">
-        <v>2.1053009503302089</v>
-      </c>
-      <c r="K6" s="4">
-        <v>1.972342502055549</v>
-      </c>
-      <c r="L6" s="4">
-        <v>2.1363918811935489</v>
-      </c>
-      <c r="M6" s="4">
-        <v>1.9480563082849529</v>
-      </c>
-      <c r="N6" s="4">
-        <v>1.6862864158696089</v>
-      </c>
-      <c r="O6" s="4">
-        <v>1.5856576375501821</v>
+        <v>4</v>
+      </c>
+      <c r="B6" s="5">
+        <v>2.688093532343554</v>
+      </c>
+      <c r="C6" s="5">
+        <v>2.543652944198576</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1.9306182789398689</v>
+      </c>
+      <c r="E6" s="5">
+        <v>2.5788713036310051</v>
+      </c>
+      <c r="F6" s="5">
+        <v>2.2737766727208202</v>
+      </c>
+      <c r="G6" s="5">
+        <v>2.0076336535534818</v>
+      </c>
+      <c r="H6" s="5">
+        <v>1.8058795320100609</v>
+      </c>
+      <c r="I6" s="5">
+        <v>1.959887218018614</v>
+      </c>
+      <c r="J6" s="5">
+        <v>2.0532540687264822</v>
+      </c>
+      <c r="K6" s="5">
+        <v>2.005216111013675</v>
+      </c>
+      <c r="L6" s="5">
+        <v>2.0503134599120139</v>
+      </c>
+      <c r="M6" s="5">
+        <v>1.869566208663799</v>
+      </c>
+      <c r="N6" s="5">
+        <v>1.804180193304052</v>
+      </c>
+      <c r="O6" s="5">
+        <v>1.6566913045345251</v>
       </c>
       <c r="P6" s="4"/>
       <c r="Q6" s="4">
-        <v>1.9364265578905029</v>
+        <v>2.0876881772550377</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3">
-        <v>10</v>
-      </c>
-      <c r="B7" s="4">
-        <v>2.0941808832187152</v>
-      </c>
-      <c r="C7" s="4">
-        <v>1.736881718594544</v>
-      </c>
-      <c r="D7" s="4">
-        <v>1.471006311238042</v>
-      </c>
-      <c r="E7" s="4">
-        <v>2.1208388183965918</v>
-      </c>
-      <c r="F7" s="4">
-        <v>1.762365716057084</v>
-      </c>
-      <c r="G7" s="4">
-        <v>2.0613325647907041</v>
-      </c>
-      <c r="H7" s="4">
-        <v>1.7857867601747299</v>
-      </c>
-      <c r="I7" s="4">
-        <v>2.4094854294668799</v>
-      </c>
-      <c r="J7" s="4">
-        <v>2.3739544472392078</v>
-      </c>
-      <c r="K7" s="4">
-        <v>2.2240294213040039</v>
-      </c>
-      <c r="L7" s="4">
-        <v>2.449119883984952</v>
-      </c>
-      <c r="M7" s="4">
-        <v>2.233215489041052</v>
-      </c>
-      <c r="N7" s="4">
-        <v>1.9459741206408581</v>
-      </c>
-      <c r="O7" s="4">
-        <v>1.7568904493140689</v>
+        <v>6</v>
+      </c>
+      <c r="B7" s="5">
+        <v>2.745197486002807</v>
+      </c>
+      <c r="C7" s="5">
+        <v>2.1474439912829228</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1.588215330262301</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1.9243240235909389</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1.75108834554712</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1.6704764036250439</v>
+      </c>
+      <c r="H7" s="5">
+        <v>1.510906074052208</v>
+      </c>
+      <c r="I7" s="5">
+        <v>1.7626189981906939</v>
+      </c>
+      <c r="J7" s="5">
+        <v>1.8747503834008139</v>
+      </c>
+      <c r="K7" s="5">
+        <v>1.8102525203438931</v>
+      </c>
+      <c r="L7" s="5">
+        <v>1.910448081288965</v>
+      </c>
+      <c r="M7" s="5">
+        <v>1.74203078993478</v>
+      </c>
+      <c r="N7" s="5">
+        <v>1.6005768127267239</v>
+      </c>
+      <c r="O7" s="5">
+        <v>1.4697321795933651</v>
       </c>
       <c r="P7" s="4"/>
       <c r="Q7" s="4">
-        <v>2.0303615723901025</v>
+        <v>1.8220043871316132</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3">
-        <v>12</v>
-      </c>
-      <c r="B8" s="4">
-        <v>1.807623740759549</v>
-      </c>
-      <c r="C8" s="4">
-        <v>1.364434958963642</v>
-      </c>
-      <c r="D8" s="4">
-        <v>1.179621296533145</v>
-      </c>
-      <c r="E8" s="4">
-        <v>1.729583535939381</v>
-      </c>
-      <c r="F8" s="4">
-        <v>1.346102128104238</v>
-      </c>
-      <c r="G8" s="4">
-        <v>1.4286100615245689</v>
-      </c>
-      <c r="H8" s="4">
-        <v>1.2500107503497491</v>
-      </c>
-      <c r="I8" s="4">
-        <v>1.712357408137215</v>
-      </c>
-      <c r="J8" s="4">
-        <v>1.777552114173103</v>
-      </c>
-      <c r="K8" s="4">
-        <v>1.679029356188227</v>
-      </c>
-      <c r="L8" s="4">
-        <v>1.794217737603538</v>
-      </c>
-      <c r="M8" s="4">
-        <v>1.636046838102863</v>
-      </c>
-      <c r="N8" s="4">
-        <v>1.441533464450474</v>
-      </c>
-      <c r="O8" s="4">
-        <v>1.3136640860401001</v>
+        <v>8</v>
+      </c>
+      <c r="B8" s="5">
+        <v>2.424310829193391</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1.9285181069764019</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1.5765386091948801</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1.98716775322256</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1.8308334513983671</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1.9856478901722401</v>
+      </c>
+      <c r="H8" s="5">
+        <v>1.7694491345610099</v>
+      </c>
+      <c r="I8" s="5">
+        <v>2.1734703404641391</v>
+      </c>
+      <c r="J8" s="5">
+        <v>2.1053009503302089</v>
+      </c>
+      <c r="K8" s="5">
+        <v>1.972342502055549</v>
+      </c>
+      <c r="L8" s="5">
+        <v>2.1363918811935489</v>
+      </c>
+      <c r="M8" s="5">
+        <v>1.9480563082849529</v>
+      </c>
+      <c r="N8" s="5">
+        <v>1.6862864158696089</v>
+      </c>
+      <c r="O8" s="5">
+        <v>1.5856576375501821</v>
       </c>
       <c r="P8" s="4"/>
       <c r="Q8" s="4">
-        <v>1.5328848197764136</v>
+        <v>1.9364265578905029</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3">
-        <v>14</v>
-      </c>
-      <c r="B9" s="4">
-        <v>1.4351677856177929</v>
-      </c>
-      <c r="C9" s="4">
-        <v>1.008612419899952</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0.84832004584538134</v>
-      </c>
-      <c r="E9" s="4">
-        <v>1.289951513182138</v>
-      </c>
-      <c r="F9" s="4">
-        <v>1.020939399032323</v>
-      </c>
-      <c r="G9" s="4">
-        <v>1.0917721142222621</v>
-      </c>
-      <c r="H9" s="4">
-        <v>0.95528298201505712</v>
-      </c>
-      <c r="I9" s="4">
-        <v>1.3714240745600881</v>
-      </c>
-      <c r="J9" s="4">
-        <v>1.4236384014094989</v>
-      </c>
-      <c r="K9" s="4">
-        <v>1.308788526258319</v>
-      </c>
-      <c r="L9" s="4">
-        <v>1.433786041170094</v>
-      </c>
-      <c r="M9" s="4">
-        <v>1.3073893262840319</v>
-      </c>
-      <c r="N9" s="4">
-        <v>1.1584183970681861</v>
-      </c>
-      <c r="O9" s="4">
-        <v>1.095893222304182</v>
+        <v>10</v>
+      </c>
+      <c r="B9" s="5">
+        <v>2.0941808832187152</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1.736881718594544</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1.471006311238042</v>
+      </c>
+      <c r="E9" s="5">
+        <v>2.1208388183965918</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1.762365716057084</v>
+      </c>
+      <c r="G9" s="5">
+        <v>2.0613325647907041</v>
+      </c>
+      <c r="H9" s="5">
+        <v>1.7857867601747299</v>
+      </c>
+      <c r="I9" s="5">
+        <v>2.4094854294668799</v>
+      </c>
+      <c r="J9" s="5">
+        <v>2.3739544472392078</v>
+      </c>
+      <c r="K9" s="5">
+        <v>2.2240294213040039</v>
+      </c>
+      <c r="L9" s="5">
+        <v>2.449119883984952</v>
+      </c>
+      <c r="M9" s="5">
+        <v>2.233215489041052</v>
+      </c>
+      <c r="N9" s="5">
+        <v>1.9459741206408581</v>
+      </c>
+      <c r="O9" s="5">
+        <v>1.7568904493140689</v>
       </c>
       <c r="P9" s="4"/>
       <c r="Q9" s="4">
-        <v>1.1963845892049503</v>
+        <v>2.0303615723901025</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3">
-        <v>16</v>
-      </c>
-      <c r="B10" s="4">
-        <v>1.2218477355561439</v>
-      </c>
-      <c r="C10" s="4">
-        <v>0.89360733511461665</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0.75493711640268069</v>
-      </c>
-      <c r="E10" s="4">
-        <v>1.0622958708256249</v>
-      </c>
-      <c r="F10" s="4">
-        <v>0.85550028471650763</v>
-      </c>
-      <c r="G10" s="4">
-        <v>0.85149947456838482</v>
-      </c>
-      <c r="H10" s="4">
-        <v>0.74504829959811913</v>
-      </c>
-      <c r="I10" s="4">
-        <v>1.151606361029333</v>
-      </c>
-      <c r="J10" s="4">
-        <v>1.195451552354222</v>
-      </c>
-      <c r="K10" s="4">
-        <v>1.099010306177358</v>
-      </c>
-      <c r="L10" s="4">
-        <v>1.215438516138915</v>
-      </c>
-      <c r="M10" s="4">
-        <v>1.108290426274283</v>
-      </c>
-      <c r="N10" s="4">
-        <v>0.98442815068941503</v>
-      </c>
-      <c r="O10" s="4">
-        <v>0.9349318979582919</v>
+        <v>12</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1.807623740759549</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1.364434958963642</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1.179621296533145</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1.729583535939381</v>
+      </c>
+      <c r="F10" s="5">
+        <v>1.346102128104238</v>
+      </c>
+      <c r="G10" s="5">
+        <v>1.4286100615245689</v>
+      </c>
+      <c r="H10" s="5">
+        <v>1.2500107503497491</v>
+      </c>
+      <c r="I10" s="5">
+        <v>1.712357408137215</v>
+      </c>
+      <c r="J10" s="5">
+        <v>1.777552114173103</v>
+      </c>
+      <c r="K10" s="5">
+        <v>1.679029356188227</v>
+      </c>
+      <c r="L10" s="5">
+        <v>1.794217737603538</v>
+      </c>
+      <c r="M10" s="5">
+        <v>1.636046838102863</v>
+      </c>
+      <c r="N10" s="5">
+        <v>1.441533464450474</v>
+      </c>
+      <c r="O10" s="5">
+        <v>1.3136640860401001</v>
       </c>
       <c r="P10" s="4"/>
       <c r="Q10" s="4">
-        <v>1.0052780948145641</v>
+        <v>1.5328848197764136</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="3">
-        <v>18</v>
-      </c>
-      <c r="B11" s="4">
-        <v>1.0992504142260111</v>
-      </c>
-      <c r="C11" s="4">
-        <v>0.78814932966080808</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0.60503332148817601</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0.85963288609647914</v>
-      </c>
-      <c r="F11" s="4">
-        <v>0.71749539532746731</v>
-      </c>
-      <c r="G11" s="4">
-        <v>0.7279698475092542</v>
-      </c>
-      <c r="H11" s="4">
-        <v>0.62161838679011572</v>
-      </c>
-      <c r="I11" s="4">
-        <v>0.99812981372114895</v>
-      </c>
-      <c r="J11" s="4">
-        <v>1.037472084696794</v>
-      </c>
-      <c r="K11" s="4">
-        <v>0.95377559317037119</v>
-      </c>
-      <c r="L11" s="4">
-        <v>1.0598890013460509</v>
-      </c>
-      <c r="M11" s="4">
-        <v>0.96645352069045865</v>
-      </c>
-      <c r="N11" s="4">
-        <v>0.86169869259614307</v>
-      </c>
-      <c r="O11" s="4">
-        <v>0.85500122902766573</v>
+        <v>14</v>
+      </c>
+      <c r="B11" s="5">
+        <v>1.4351677856177929</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1.008612419899952</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0.84832004584538134</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1.289951513182138</v>
+      </c>
+      <c r="F11" s="5">
+        <v>1.020939399032323</v>
+      </c>
+      <c r="G11" s="5">
+        <v>1.0917721142222621</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0.95528298201505712</v>
+      </c>
+      <c r="I11" s="5">
+        <v>1.3714240745600881</v>
+      </c>
+      <c r="J11" s="5">
+        <v>1.4236384014094989</v>
+      </c>
+      <c r="K11" s="5">
+        <v>1.308788526258319</v>
+      </c>
+      <c r="L11" s="5">
+        <v>1.433786041170094</v>
+      </c>
+      <c r="M11" s="5">
+        <v>1.3073893262840319</v>
+      </c>
+      <c r="N11" s="5">
+        <v>1.1584183970681861</v>
+      </c>
+      <c r="O11" s="5">
+        <v>1.095893222304182</v>
       </c>
       <c r="P11" s="4"/>
       <c r="Q11" s="4">
-        <v>0.8679692511676389</v>
+        <v>1.1963845892049503</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3">
-        <v>20</v>
-      </c>
-      <c r="B12" s="4">
-        <v>1.069479830800945</v>
-      </c>
-      <c r="C12" s="4">
-        <v>0.78966050254223297</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0.62154173406865409</v>
-      </c>
-      <c r="E12" s="4">
-        <v>0.88308808078976453</v>
-      </c>
-      <c r="F12" s="4">
-        <v>0.73707235016613237</v>
-      </c>
-      <c r="G12" s="4">
-        <v>0.75600935648119083</v>
-      </c>
-      <c r="H12" s="4">
-        <v>0.64556151354619995</v>
-      </c>
-      <c r="I12" s="4">
-        <v>1.0112095261990479</v>
-      </c>
-      <c r="J12" s="4">
-        <v>1.056761102883643</v>
-      </c>
-      <c r="K12" s="4">
-        <v>0.97150849898461622</v>
-      </c>
-      <c r="L12" s="4">
-        <v>1.0326748979479059</v>
-      </c>
-      <c r="M12" s="4">
-        <v>0.94163850137412386</v>
-      </c>
-      <c r="N12" s="4">
-        <v>0.8406361482634721</v>
-      </c>
-      <c r="O12" s="4">
-        <v>0.8507335779863604</v>
+        <v>16</v>
+      </c>
+      <c r="B12" s="5">
+        <v>1.2218477355561439</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.89360733511461665</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0.75493711640268069</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1.0622958708256249</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0.85550028471650763</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0.85149947456838482</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0.74504829959811913</v>
+      </c>
+      <c r="I12" s="5">
+        <v>1.151606361029333</v>
+      </c>
+      <c r="J12" s="5">
+        <v>1.195451552354222</v>
+      </c>
+      <c r="K12" s="5">
+        <v>1.099010306177358</v>
+      </c>
+      <c r="L12" s="5">
+        <v>1.215438516138915</v>
+      </c>
+      <c r="M12" s="5">
+        <v>1.108290426274283</v>
+      </c>
+      <c r="N12" s="5">
+        <v>0.98442815068941503</v>
+      </c>
+      <c r="O12" s="5">
+        <v>0.9349318979582919</v>
       </c>
       <c r="P12" s="4"/>
       <c r="Q12" s="4">
-        <v>0.87196968728816349</v>
+        <v>1.0052780948145641</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3">
-        <v>22</v>
-      </c>
-      <c r="B13" s="4">
-        <v>0.91051258851168904</v>
-      </c>
-      <c r="C13" s="4">
-        <v>0.67523533942955571</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0.54963706911700216</v>
-      </c>
-      <c r="E13" s="4">
-        <v>0.77785293412156142</v>
-      </c>
-      <c r="F13" s="4">
-        <v>0.6482750959266258</v>
-      </c>
-      <c r="G13" s="4">
-        <v>0.67203048147699962</v>
-      </c>
-      <c r="H13" s="4">
-        <v>0.58743984925572401</v>
-      </c>
-      <c r="I13" s="4">
-        <v>0.94467928240697607</v>
-      </c>
-      <c r="J13" s="4">
-        <v>0.98776898224709009</v>
-      </c>
-      <c r="K13" s="4">
-        <v>0.90808221334779304</v>
-      </c>
-      <c r="L13" s="4">
-        <v>0.96935499442380957</v>
-      </c>
-      <c r="M13" s="4">
-        <v>0.88390062164056094</v>
-      </c>
-      <c r="N13" s="4">
-        <v>0.78909136886321085</v>
-      </c>
-      <c r="O13" s="4">
-        <v>0.81617861268193836</v>
+        <v>18</v>
+      </c>
+      <c r="B13" s="5">
+        <v>1.0992504142260111</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.78814932966080808</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0.60503332148817601</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0.85963288609647914</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0.71749539532746731</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0.7279698475092542</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0.62161838679011572</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0.99812981372114895</v>
+      </c>
+      <c r="J13" s="5">
+        <v>1.037472084696794</v>
+      </c>
+      <c r="K13" s="5">
+        <v>0.95377559317037119</v>
+      </c>
+      <c r="L13" s="5">
+        <v>1.0598890013460509</v>
+      </c>
+      <c r="M13" s="5">
+        <v>0.96645352069045865</v>
+      </c>
+      <c r="N13" s="5">
+        <v>0.86169869259614307</v>
+      </c>
+      <c r="O13" s="5">
+        <v>0.85500122902766573</v>
       </c>
       <c r="P13" s="4"/>
       <c r="Q13" s="4">
-        <v>0.79428853096075258</v>
+        <v>0.8679692511676389</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="3">
-        <v>24</v>
-      </c>
-      <c r="B14" s="4">
-        <v>0.90443398246137019</v>
-      </c>
-      <c r="C14" s="4">
-        <v>0.70716252514244038</v>
-      </c>
-      <c r="D14" s="4">
-        <v>0.55282866311417145</v>
-      </c>
-      <c r="E14" s="4">
-        <v>0.74782105737357729</v>
-      </c>
-      <c r="F14" s="4">
-        <v>0.61240269085944965</v>
-      </c>
-      <c r="G14" s="4">
-        <v>0.63600275570802967</v>
-      </c>
-      <c r="H14" s="4">
-        <v>0.58220224527712494</v>
-      </c>
-      <c r="I14" s="4">
-        <v>0.78062071587809556</v>
-      </c>
-      <c r="J14" s="4">
-        <v>0.8182228702656551</v>
-      </c>
-      <c r="K14" s="4">
-        <v>0.75221397755609698</v>
-      </c>
-      <c r="L14" s="4">
-        <v>0.80296956079695314</v>
-      </c>
-      <c r="M14" s="4">
-        <v>0.73746638881394277</v>
-      </c>
-      <c r="N14" s="4">
-        <v>0.62589446262992787</v>
-      </c>
-      <c r="O14" s="4">
-        <v>0.67168649412115589</v>
+        <v>20</v>
+      </c>
+      <c r="B14" s="5">
+        <v>1.069479830800945</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.78966050254223297</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0.62154173406865409</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0.88308808078976453</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0.73707235016613237</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0.75600935648119083</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0.64556151354619995</v>
+      </c>
+      <c r="I14" s="5">
+        <v>1.0112095261990479</v>
+      </c>
+      <c r="J14" s="5">
+        <v>1.056761102883643</v>
+      </c>
+      <c r="K14" s="5">
+        <v>0.97150849898461622</v>
+      </c>
+      <c r="L14" s="5">
+        <v>1.0326748979479059</v>
+      </c>
+      <c r="M14" s="5">
+        <v>0.94163850137412386</v>
+      </c>
+      <c r="N14" s="5">
+        <v>0.8406361482634721</v>
+      </c>
+      <c r="O14" s="5">
+        <v>0.8507335779863604</v>
       </c>
       <c r="P14" s="4"/>
       <c r="Q14" s="4">
-        <v>0.70942345642842786</v>
+        <v>0.87196968728816349</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="3">
-        <v>26</v>
-      </c>
-      <c r="B15" s="4">
-        <v>0.8757781440467175</v>
-      </c>
-      <c r="C15" s="4">
-        <v>0.70332160362638207</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0.56337448068673535</v>
-      </c>
-      <c r="E15" s="4">
-        <v>0.79157603102744833</v>
-      </c>
-      <c r="F15" s="4">
-        <v>0.65558245969404172</v>
-      </c>
-      <c r="G15" s="4">
-        <v>0.60735833802594519</v>
-      </c>
-      <c r="H15" s="4">
-        <v>0.55650319861271802</v>
-      </c>
-      <c r="I15" s="4">
-        <v>0.75981518352259481</v>
-      </c>
-      <c r="J15" s="4">
-        <v>0.83634521171421627</v>
-      </c>
-      <c r="K15" s="4">
-        <v>0.7688743265136192</v>
-      </c>
-      <c r="L15" s="4">
-        <v>0.82810524064515434</v>
-      </c>
-      <c r="M15" s="4">
-        <v>0.76055159646445281</v>
-      </c>
-      <c r="N15" s="4">
-        <v>0.64548708929913168</v>
-      </c>
-      <c r="O15" s="4">
-        <v>0.70045630525953495</v>
+        <v>22</v>
+      </c>
+      <c r="B15" s="5">
+        <v>0.91051258851168904</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.67523533942955571</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0.54963706911700216</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0.77785293412156142</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0.6482750959266258</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0.67203048147699962</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0.58743984925572401</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0.94467928240697607</v>
+      </c>
+      <c r="J15" s="5">
+        <v>0.98776898224709009</v>
+      </c>
+      <c r="K15" s="5">
+        <v>0.90808221334779304</v>
+      </c>
+      <c r="L15" s="5">
+        <v>0.96935499442380957</v>
+      </c>
+      <c r="M15" s="5">
+        <v>0.88390062164056094</v>
+      </c>
+      <c r="N15" s="5">
+        <v>0.78909136886321085</v>
+      </c>
+      <c r="O15" s="5">
+        <v>0.81617861268193836</v>
       </c>
       <c r="P15" s="4"/>
       <c r="Q15" s="4">
-        <v>0.71808065779562091</v>
+        <v>0.79428853096075258</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="3">
-        <v>28</v>
-      </c>
-      <c r="B16" s="4">
-        <v>0.78308243373693787</v>
-      </c>
-      <c r="C16" s="4">
-        <v>0.64002704755781836</v>
-      </c>
-      <c r="D16" s="4">
-        <v>0.53061964643994342</v>
-      </c>
-      <c r="E16" s="4">
-        <v>0.74555346064330164</v>
-      </c>
-      <c r="F16" s="4">
-        <v>0.61746661394929614</v>
-      </c>
-      <c r="G16" s="4">
-        <v>0.58074069965831021</v>
-      </c>
-      <c r="H16" s="4">
-        <v>0.52066368359533122</v>
-      </c>
-      <c r="I16" s="4">
-        <v>0.72010276435651521</v>
-      </c>
-      <c r="J16" s="4">
-        <v>0.79263288227489614</v>
-      </c>
-      <c r="K16" s="4">
-        <v>0.72868842314829629</v>
-      </c>
-      <c r="L16" s="4">
-        <v>0.79418843811679229</v>
-      </c>
-      <c r="M16" s="4">
-        <v>0.74238206996251965</v>
-      </c>
-      <c r="N16" s="4">
-        <v>0.65557508372339091</v>
-      </c>
-      <c r="O16" s="4">
-        <v>0.71140338602852338</v>
+        <v>24</v>
+      </c>
+      <c r="B16" s="5">
+        <v>0.90443398246137019</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0.70716252514244038</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0.55282866311417145</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0.74782105737357729</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0.61240269085944965</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0.63600275570802967</v>
+      </c>
+      <c r="H16" s="5">
+        <v>0.58220224527712494</v>
+      </c>
+      <c r="I16" s="5">
+        <v>0.78062071587809556</v>
+      </c>
+      <c r="J16" s="5">
+        <v>0.8182228702656551</v>
+      </c>
+      <c r="K16" s="5">
+        <v>0.75221397755609698</v>
+      </c>
+      <c r="L16" s="5">
+        <v>0.80296956079695314</v>
+      </c>
+      <c r="M16" s="5">
+        <v>0.73746638881394277</v>
+      </c>
+      <c r="N16" s="5">
+        <v>0.62589446262992787</v>
+      </c>
+      <c r="O16" s="5">
+        <v>0.67168649412115589</v>
       </c>
       <c r="P16" s="4"/>
       <c r="Q16" s="4">
-        <v>0.68308047379941961</v>
+        <v>0.70942345642842786</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
+      <c r="A17" s="3">
+        <v>26</v>
+      </c>
+      <c r="B17" s="5">
+        <v>0.8757781440467175</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0.70332160362638207</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0.56337448068673535</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0.79157603102744833</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0.65558245969404172</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0.60735833802594519</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0.55650319861271802</v>
+      </c>
+      <c r="I17" s="5">
+        <v>0.75981518352259481</v>
+      </c>
+      <c r="J17" s="5">
+        <v>0.83634521171421627</v>
+      </c>
+      <c r="K17" s="5">
+        <v>0.7688743265136192</v>
+      </c>
+      <c r="L17" s="5">
+        <v>0.82810524064515434</v>
+      </c>
+      <c r="M17" s="5">
+        <v>0.76055159646445281</v>
+      </c>
+      <c r="N17" s="5">
+        <v>0.64548708929913168</v>
+      </c>
+      <c r="O17" s="5">
+        <v>0.70045630525953495</v>
+      </c>
       <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
+      <c r="Q17" s="4">
+        <v>0.71808065779562091</v>
+      </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="4">
-        <v>1.6402231944863916</v>
-      </c>
-      <c r="C18" s="4">
-        <v>1.2779318949645899</v>
-      </c>
-      <c r="D18" s="4">
-        <v>1.0255066069317957</v>
-      </c>
-      <c r="E18" s="4">
-        <v>1.3790239324254192</v>
-      </c>
-      <c r="F18" s="4">
-        <v>1.1741821306886731</v>
-      </c>
-      <c r="G18" s="4">
-        <v>1.175779288289976</v>
-      </c>
-      <c r="H18" s="4">
-        <v>1.0484446012784321</v>
-      </c>
-      <c r="I18" s="4">
-        <v>1.3689407991901543</v>
-      </c>
-      <c r="J18" s="4">
-        <v>1.4117378373506335</v>
-      </c>
-      <c r="K18" s="4">
-        <v>1.3262639748338274</v>
-      </c>
-      <c r="L18" s="4">
-        <v>1.4208836357848298</v>
-      </c>
-      <c r="M18" s="4">
-        <v>1.3054803416551748</v>
-      </c>
-      <c r="N18" s="4">
-        <v>1.1715241898941264</v>
-      </c>
-      <c r="O18" s="4">
-        <v>1.126518384432855</v>
+      <c r="A18" s="3">
+        <v>28</v>
+      </c>
+      <c r="B18" s="5">
+        <v>0.78308243373693787</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0.64002704755781836</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0.53061964643994342</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0.74555346064330164</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0.61746661394929614</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0.58074069965831021</v>
+      </c>
+      <c r="H18" s="5">
+        <v>0.52066368359533122</v>
+      </c>
+      <c r="I18" s="5">
+        <v>0.72010276435651521</v>
+      </c>
+      <c r="J18" s="5">
+        <v>0.79263288227489614</v>
+      </c>
+      <c r="K18" s="5">
+        <v>0.72868842314829629</v>
+      </c>
+      <c r="L18" s="5">
+        <v>0.79418843811679229</v>
+      </c>
+      <c r="M18" s="5">
+        <v>0.74238206996251965</v>
+      </c>
+      <c r="N18" s="5">
+        <v>0.65557508372339091</v>
+      </c>
+      <c r="O18" s="5">
+        <v>0.71140338602852338</v>
       </c>
       <c r="P18" s="4"/>
       <c r="Q18" s="4">
+        <v>0.68308047379941961</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="4">
+        <v>1.6402231944863916</v>
+      </c>
+      <c r="C20" s="4">
+        <v>1.2779318949645899</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1.0255066069317957</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1.3790239324254192</v>
+      </c>
+      <c r="F20" s="4">
+        <v>1.1741821306886731</v>
+      </c>
+      <c r="G20" s="4">
+        <v>1.175779288289976</v>
+      </c>
+      <c r="H20" s="4">
+        <v>1.0484446012784321</v>
+      </c>
+      <c r="I20" s="4">
+        <v>1.3689407991901543</v>
+      </c>
+      <c r="J20" s="4">
+        <v>1.4117378373506335</v>
+      </c>
+      <c r="K20" s="4">
+        <v>1.3262639748338274</v>
+      </c>
+      <c r="L20" s="4">
+        <v>1.4208836357848298</v>
+      </c>
+      <c r="M20" s="4">
+        <v>1.3054803416551748</v>
+      </c>
+      <c r="N20" s="4">
+        <v>1.1715241898941264</v>
+      </c>
+      <c r="O20" s="4">
+        <v>1.126518384432855</v>
+      </c>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4">
         <v>1.2751743437290626</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting pivot="1" sqref="B3:O16">
+  <conditionalFormatting pivot="1" sqref="B5:O18">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
